--- a/Свод задач.xlsx
+++ b/Свод задач.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruskig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusdad\Desktop\happy-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2FFE2C-9C0E-4D7A-8CDC-674260AE07D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1367D4EF-E7C3-4C08-95B3-2C2A0B71F36C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Критичность</t>
   </si>
   <si>
-    <t>Отвественный</t>
-  </si>
-  <si>
     <t>Тип</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Игорь, Даня</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
   </si>
 </sst>
 </file>
@@ -520,28 +520,28 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -565,21 +565,21 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="4">
         <v>43731</v>
@@ -588,28 +588,28 @@
         <v>43733</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>43731</v>
@@ -618,26 +618,26 @@
         <v>43737</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
         <v>43731</v>
@@ -649,10 +649,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>

--- a/Свод задач.xlsx
+++ b/Свод задач.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruskig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruskig\Desktop\happy-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2FFE2C-9C0E-4D7A-8CDC-674260AE07D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4AFA84-23A8-4EF5-8037-F3F482B10347}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Игорь, Даня</t>
+  </si>
+  <si>
+    <t>Почесать башку</t>
   </si>
 </sst>
 </file>
@@ -520,12 +523,12 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
@@ -656,7 +659,9 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>

--- a/Свод задач.xlsx
+++ b/Свод задач.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruskig\Desktop\happy-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4AFA84-23A8-4EF5-8037-F3F482B10347}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F15C6C-9FB5-4F2F-9376-2C1AA7E4930B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>N</t>
   </si>
@@ -63,18 +66,12 @@
     <t>Тип</t>
   </si>
   <si>
-    <t>Обучение</t>
-  </si>
-  <si>
     <t>Составить план по научке</t>
   </si>
   <si>
     <t>В процессе</t>
   </si>
   <si>
-    <t>Подготовка</t>
-  </si>
-  <si>
     <t>Изучить один индикатор на 3-5 фьючерсах и внести в таблицу</t>
   </si>
   <si>
@@ -93,14 +90,38 @@
     <t>Игорь, Даня</t>
   </si>
   <si>
-    <t>Почесать башку</t>
+    <t>Научка</t>
+  </si>
+  <si>
+    <t>Торговля</t>
+  </si>
+  <si>
+    <t>Закрыт</t>
+  </si>
+  <si>
+    <t>Написать программу с стандартным ШИМ</t>
+  </si>
+  <si>
+    <t>Написать пограмму с ИНС для двухконтурной АСР</t>
+  </si>
+  <si>
+    <t>Также необходимо провести сравнение с классической АСР</t>
+  </si>
+  <si>
+    <t>Найти сложную схему внедрения</t>
+  </si>
+  <si>
+    <t>Написать программу с ИНС для 3-х 4-х мерного объекта</t>
+  </si>
+  <si>
+    <t>Даня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +154,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +178,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,29 +210,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -523,20 +573,21 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -576,29 +627,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43731</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43733</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43731</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43733</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -606,27 +657,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
         <v>43731</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43737</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -634,95 +687,153 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
         <v>43731</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43737</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43734</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43750</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43734</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43764</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43734</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43799</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43734</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43778</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -732,11 +843,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -746,11 +857,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -760,11 +871,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -774,11 +885,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -788,11 +899,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -802,11 +913,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -816,11 +927,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -830,11 +941,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -844,11 +955,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -858,11 +969,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -872,11 +983,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -886,11 +997,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -900,11 +1011,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -914,11 +1025,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -928,11 +1039,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -942,11 +1053,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -956,11 +1067,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -970,11 +1081,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -984,11 +1095,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -998,11 +1109,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1012,11 +1123,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1026,16 +1137,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J31" xr:uid="{320CCFE6-F04C-49DF-B67F-55C544D52C0E}"/>
   <conditionalFormatting sqref="F1">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(AND($D$2&lt;&gt;"Устранено",$H$2&gt;TODAY()),TRUE,FALSE)</formula>

--- a/Свод задач.xlsx
+++ b/Свод задач.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruskig\Desktop\happy-work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusdad\Desktop\happy-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F15C6C-9FB5-4F2F-9376-2C1AA7E4930B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87859B24-8286-4835-844F-562A4409D8A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -72,9 +72,6 @@
     <t>В процессе</t>
   </si>
   <si>
-    <t>Изучить один индикатор на 3-5 фьючерсах и внести в таблицу</t>
-  </si>
-  <si>
     <t>Игорь</t>
   </si>
   <si>
@@ -115,13 +112,55 @@
   </si>
   <si>
     <t>Даня</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Изучить один индикатор на 3-5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>индексах</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и внести в таблицу</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Торговля </t>
+  </si>
+  <si>
+    <t>Пройти курсы по трейдингу</t>
+  </si>
+  <si>
+    <t>Проверить модель голова - плечи и флаги</t>
+  </si>
+  <si>
+    <t>Думаю, надо обоим пройти. Сам ничего не помню.</t>
+  </si>
+  <si>
+    <t>Самые банальные и рабочие индикаторы. (С них надо начинать)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +196,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -573,24 +620,24 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="8"/>
+    <col min="2" max="2" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="15" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,18 +669,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5">
         <v>43731</v>
@@ -642,25 +689,25 @@
         <v>43733</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="6">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
@@ -672,28 +719,28 @@
         <v>43737</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="6">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="5">
         <v>43731</v>
@@ -707,18 +754,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -735,18 +782,18 @@
         <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -758,25 +805,25 @@
         <v>43764</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="7">
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -793,18 +840,18 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -821,38 +868,70 @@
         <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43737</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43744</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43737</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43744</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -866,7 +945,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -880,7 +959,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -894,7 +973,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -908,7 +987,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -922,7 +1001,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -936,7 +1015,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -950,7 +1029,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -964,7 +1043,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -978,7 +1057,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -986,13 +1065,12 @@
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1000,13 +1078,12 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1020,7 +1097,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1034,7 +1111,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1048,7 +1125,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1062,7 +1139,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1076,7 +1153,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1090,7 +1167,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1104,7 +1181,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1118,7 +1195,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1132,7 +1209,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1154,6 +1231,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Свод задач.xlsx
+++ b/Свод задач.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusdad\Desktop\happy-work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruskig\Desktop\happy-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87859B24-8286-4835-844F-562A4409D8A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0C5801-1F0C-4091-86D2-3F5507B4D779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8DFF810D-36E0-4FDA-8889-06CB8A5AF5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,25 +619,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B1920-24B4-4D32-BA3D-EFAAD32F4D34}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="8"/>
-    <col min="2" max="2" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="8"/>
+    <col min="2" max="2" width="15.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" style="8" customWidth="1"/>
     <col min="9" max="9" width="15" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -729,7 +729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -795,8 +795,8 @@
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="5">
         <v>43734</v>
@@ -815,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -843,7 +843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -853,8 +853,8 @@
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="5">
         <v>43734</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
